--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.748331888622261</v>
+        <v>3.449608982848815</v>
       </c>
       <c r="C2">
-        <v>1.047438009735345</v>
+        <v>0.4864929202748272</v>
       </c>
       <c r="D2">
-        <v>0.1314876778745742</v>
+        <v>0.363943544568798</v>
       </c>
       <c r="E2">
-        <v>0.3891314918129183</v>
+        <v>0.03588084626945509</v>
       </c>
       <c r="F2">
-        <v>6.566039059261726</v>
+        <v>6.609572557455948</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4041518257344663</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3255791882687333</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.199869816731052</v>
+        <v>2.972180362048675</v>
       </c>
       <c r="C3">
-        <v>0.8919761345467805</v>
+        <v>0.4173912933539157</v>
       </c>
       <c r="D3">
-        <v>0.1158934763995347</v>
+        <v>0.3272514664941042</v>
       </c>
       <c r="E3">
-        <v>0.3310075820607778</v>
+        <v>0.03423358134012489</v>
       </c>
       <c r="F3">
-        <v>5.709283262800142</v>
+        <v>5.827592025316591</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3450260857242213</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2844073727671912</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873404256306742</v>
+        <v>2.688159322699846</v>
       </c>
       <c r="C4">
-        <v>0.7995441512078685</v>
+        <v>0.3760843217487206</v>
       </c>
       <c r="D4">
-        <v>0.1066899757882567</v>
+        <v>0.3053857047247988</v>
       </c>
       <c r="E4">
-        <v>0.2965822360477262</v>
+        <v>0.03326228356602456</v>
       </c>
       <c r="F4">
-        <v>5.201593924819434</v>
+        <v>5.361376330947223</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3100072749188243</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2599289620538485</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.742525693060543</v>
+        <v>2.574390697253705</v>
       </c>
       <c r="C5">
-        <v>0.7625027692272681</v>
+        <v>0.3594820757327568</v>
       </c>
       <c r="D5">
-        <v>0.1030163941695861</v>
+        <v>0.2966154138389214</v>
       </c>
       <c r="E5">
-        <v>0.2828170113288522</v>
+        <v>0.03287523313438001</v>
       </c>
       <c r="F5">
-        <v>4.998587973962373</v>
+        <v>5.174370822251916</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.296005823714971</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2501285801123601</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.720912363775824</v>
+        <v>2.555609946881475</v>
       </c>
       <c r="C6">
-        <v>0.7563862777674331</v>
+        <v>0.3567378376074259</v>
       </c>
       <c r="D6">
-        <v>0.1024106053923219</v>
+        <v>0.295166860095776</v>
       </c>
       <c r="E6">
-        <v>0.2805457758547405</v>
+        <v>0.03281145695862264</v>
       </c>
       <c r="F6">
-        <v>4.965093779438973</v>
+        <v>5.143484678321641</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2936957035640546</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2485110672403863</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871630965399959</v>
+        <v>2.686617410685585</v>
       </c>
       <c r="C7">
-        <v>0.7990422297622217</v>
+        <v>0.3758595472476429</v>
       </c>
       <c r="D7">
-        <v>0.1066401412661406</v>
+        <v>0.3052668908639902</v>
       </c>
       <c r="E7">
-        <v>0.2963955929555766</v>
+        <v>0.03325702983732448</v>
       </c>
       <c r="F7">
-        <v>5.19884129969256</v>
+        <v>5.35884288247712</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3098174231719568</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2597961160940656</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.556807454722616</v>
+        <v>3.282891889493442</v>
       </c>
       <c r="C8">
-        <v>0.9931199627410479</v>
+        <v>0.4624007760197628</v>
       </c>
       <c r="D8">
-        <v>0.1260230346180577</v>
+        <v>0.3511374025061542</v>
       </c>
       <c r="E8">
-        <v>0.3687929775861036</v>
+        <v>0.03530368749230917</v>
       </c>
       <c r="F8">
-        <v>6.26634233238488</v>
+        <v>6.336722879386855</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.383463550484862</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3111997331511702</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.005442338243654</v>
+        <v>4.541540760341377</v>
       </c>
       <c r="C9">
-        <v>1.405050256647598</v>
+        <v>0.6437437178677783</v>
       </c>
       <c r="D9">
-        <v>0.1678735473185924</v>
+        <v>0.4477488117742183</v>
       </c>
       <c r="E9">
-        <v>0.523753433097184</v>
+        <v>0.03970568219355641</v>
       </c>
       <c r="F9">
-        <v>8.545174929584419</v>
+        <v>8.392101077003275</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5410231056597397</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4197629133534519</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.17461662416008</v>
+        <v>5.549247310466967</v>
       </c>
       <c r="C10">
-        <v>1.739799457054801</v>
+        <v>0.7887119663061242</v>
       </c>
       <c r="D10">
-        <v>0.2025263178264396</v>
+        <v>0.5251191044735322</v>
       </c>
       <c r="E10">
-        <v>0.6507686397787964</v>
+        <v>0.04329433714436171</v>
       </c>
       <c r="F10">
-        <v>10.40168211092663</v>
+        <v>10.03166138618573</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6699755116307813</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.506597339048156</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.74174665520917</v>
+        <v>6.033866593517303</v>
       </c>
       <c r="C11">
-        <v>1.903069294961426</v>
+        <v>0.858560471229822</v>
       </c>
       <c r="D11">
-        <v>0.2196172029217962</v>
+        <v>0.5623679927705894</v>
       </c>
       <c r="E11">
-        <v>0.7130353917885088</v>
+        <v>0.04503767235551948</v>
       </c>
       <c r="F11">
-        <v>11.3068116671439</v>
+        <v>10.81858630513437</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7330995648000709</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5483021741222274</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.962990793114727</v>
+        <v>6.222018769731847</v>
       </c>
       <c r="C12">
-        <v>1.96693551743607</v>
+        <v>0.8857171566076261</v>
       </c>
       <c r="D12">
-        <v>0.2263343963769131</v>
+        <v>0.5768387970844913</v>
       </c>
       <c r="E12">
-        <v>0.7374462858821147</v>
+        <v>0.04571737791966335</v>
       </c>
       <c r="F12">
-        <v>11.66064387068855</v>
+        <v>11.12385119833556</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7578272576805531</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5644820122678027</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.915026539328949</v>
+        <v>6.181274613748826</v>
       </c>
       <c r="C13">
-        <v>1.953081270031191</v>
+        <v>0.8798343604684931</v>
       </c>
       <c r="D13">
-        <v>0.2248757807806356</v>
+        <v>0.5737047072187522</v>
       </c>
       <c r="E13">
-        <v>0.7321483791485264</v>
+        <v>0.04557005563660432</v>
       </c>
       <c r="F13">
-        <v>11.5839019619122</v>
+        <v>11.05775841299601</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7524615654765157</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5609788899710821</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.759809024175411</v>
+        <v>6.04924736630602</v>
       </c>
       <c r="C14">
-        <v>1.908279612304739</v>
+        <v>0.8607795499762005</v>
       </c>
       <c r="D14">
-        <v>0.2201645465881086</v>
+        <v>0.5635507315478492</v>
       </c>
       <c r="E14">
-        <v>0.715025748384889</v>
+        <v>0.04509317687890935</v>
       </c>
       <c r="F14">
-        <v>11.3356836331846</v>
+        <v>10.84354595224448</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7351161748370387</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5496250826457185</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.665627134825854</v>
+        <v>5.969009903640313</v>
       </c>
       <c r="C15">
-        <v>1.881118845680078</v>
+        <v>0.849204849678074</v>
       </c>
       <c r="D15">
-        <v>0.217312602096797</v>
+        <v>0.5573810731993945</v>
       </c>
       <c r="E15">
-        <v>0.7046524636346945</v>
+        <v>0.04480374083887639</v>
       </c>
       <c r="F15">
-        <v>11.18516724580536</v>
+        <v>10.7133275297582</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7246052545127171</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5427233108498513</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.138374978631077</v>
+        <v>5.518173654377108</v>
       </c>
       <c r="C16">
-        <v>1.729386847718501</v>
+        <v>0.784237402191394</v>
       </c>
       <c r="D16">
-        <v>0.201440402456555</v>
+        <v>0.5227317750148757</v>
       </c>
       <c r="E16">
-        <v>0.6468043916354773</v>
+        <v>0.04318292654065026</v>
       </c>
       <c r="F16">
-        <v>10.34393679567609</v>
+        <v>9.981170846457502</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6659544251633065</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5039218383756463</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.824843638060429</v>
+        <v>5.248873419965548</v>
       </c>
       <c r="C17">
-        <v>1.639406639718231</v>
+        <v>0.7454747586388919</v>
       </c>
       <c r="D17">
-        <v>0.1920773950062511</v>
+        <v>0.5020467363878538</v>
       </c>
       <c r="E17">
-        <v>0.6125823685949001</v>
+        <v>0.04221932091691194</v>
       </c>
       <c r="F17">
-        <v>9.844878819430846</v>
+        <v>9.543421911749704</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6312312830703775</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4807282117886871</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.647724540015531</v>
+        <v>5.096384200570867</v>
       </c>
       <c r="C18">
-        <v>1.588653085904753</v>
+        <v>0.7235363521972431</v>
       </c>
       <c r="D18">
-        <v>0.1868129646064602</v>
+        <v>0.4903374828093945</v>
       </c>
       <c r="E18">
-        <v>0.593307322220447</v>
+        <v>0.04167525662897198</v>
       </c>
       <c r="F18">
-        <v>9.563364270091853</v>
+        <v>9.295410274843334</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6116661106201917</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4675902729153023</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.588270442456633</v>
+        <v>5.045143586199799</v>
       </c>
       <c r="C19">
-        <v>1.57162872811449</v>
+        <v>0.7161657640002375</v>
       </c>
       <c r="D19">
-        <v>0.1850498676556214</v>
+        <v>0.486403357322871</v>
       </c>
       <c r="E19">
-        <v>0.5868464457168443</v>
+        <v>0.0414926963322948</v>
       </c>
       <c r="F19">
-        <v>9.468936140325098</v>
+        <v>9.212048268108191</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6051067790933828</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.463174853453836</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.857877754624383</v>
+        <v>5.27728627274837</v>
       </c>
       <c r="C20">
-        <v>1.648878706223115</v>
+        <v>0.7495632276864796</v>
       </c>
       <c r="D20">
-        <v>0.1930612417788353</v>
+        <v>0.5042287512915493</v>
       </c>
       <c r="E20">
-        <v>0.6161818948030913</v>
+        <v>0.04232082159433226</v>
       </c>
       <c r="F20">
-        <v>9.897416913780319</v>
+        <v>9.589621880107416</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6348843758645231</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4831758012271195</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.805210876775277</v>
+        <v>6.08789320704426</v>
       </c>
       <c r="C21">
-        <v>1.921379250298116</v>
+        <v>0.8663559011566235</v>
       </c>
       <c r="D21">
-        <v>0.2215411810666836</v>
+        <v>0.5665226435541797</v>
       </c>
       <c r="E21">
-        <v>0.7200307350641282</v>
+        <v>0.04523268450404316</v>
       </c>
       <c r="F21">
-        <v>11.40826844741446</v>
+        <v>10.90625554687188</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7401868503254647</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5529488272903222</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.463129892343659</v>
+        <v>6.645259448561092</v>
       </c>
       <c r="C22">
-        <v>2.111685591107573</v>
+        <v>0.9468998621783271</v>
       </c>
       <c r="D22">
-        <v>0.2416220701206555</v>
+        <v>0.6094103914120979</v>
       </c>
       <c r="E22">
-        <v>0.7928827487223487</v>
+        <v>0.04725198571962608</v>
       </c>
       <c r="F22">
-        <v>12.46191902565505</v>
+        <v>11.81001835727494</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8139393329925895</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6008507324659291</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.107854655878043</v>
+        <v>6.344916703530259</v>
       </c>
       <c r="C23">
-        <v>2.00880764647826</v>
+        <v>0.9034688332932603</v>
       </c>
       <c r="D23">
-        <v>0.2307477469236545</v>
+        <v>0.5862938040405936</v>
       </c>
       <c r="E23">
-        <v>0.7534668511664222</v>
+        <v>0.04616219106597619</v>
       </c>
       <c r="F23">
-        <v>11.89253359053993</v>
+        <v>11.32316903632869</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7740494572237964</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.575046511171621</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.842933368851959</v>
+        <v>5.264433611665311</v>
       </c>
       <c r="C24">
-        <v>1.644593373672819</v>
+        <v>0.7477137612796696</v>
       </c>
       <c r="D24">
-        <v>0.1926160794700849</v>
+        <v>0.5032416979064465</v>
       </c>
       <c r="E24">
-        <v>0.6145533174582596</v>
+        <v>0.04227490248340793</v>
       </c>
       <c r="F24">
-        <v>9.873647788821586</v>
+        <v>9.568723585636974</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6332315870777094</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.482068639437955</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.598618390326408</v>
+        <v>4.188839329033442</v>
       </c>
       <c r="C25">
-        <v>1.28908879856607</v>
+        <v>0.5930130923990475</v>
       </c>
       <c r="D25">
-        <v>0.1559995871435405</v>
+        <v>0.4206837043527827</v>
       </c>
       <c r="E25">
-        <v>0.4799709884601242</v>
+        <v>0.0384623511830906</v>
       </c>
       <c r="F25">
-        <v>7.902569064165135</v>
+        <v>7.817094376496357</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4965258945115636</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3893454176644013</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449608982848815</v>
+        <v>1.352751969760277</v>
       </c>
       <c r="C2">
-        <v>0.4864929202748272</v>
+        <v>0.4253251029817591</v>
       </c>
       <c r="D2">
-        <v>0.363943544568798</v>
+        <v>0.02573267461917261</v>
       </c>
       <c r="E2">
-        <v>0.03588084626945509</v>
+        <v>1.383913835254788</v>
       </c>
       <c r="F2">
-        <v>6.609572557455948</v>
+        <v>1.3228802432169</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7082496450518576</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.758310626606487</v>
       </c>
       <c r="L2">
-        <v>0.3255791882687333</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.056002761250511</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972180362048675</v>
+        <v>1.167926089405427</v>
       </c>
       <c r="C3">
-        <v>0.4173912933539157</v>
+        <v>0.3660457515746032</v>
       </c>
       <c r="D3">
-        <v>0.3272514664941042</v>
+        <v>0.02719763011930976</v>
       </c>
       <c r="E3">
-        <v>0.03423358134012489</v>
+        <v>1.18471703918145</v>
       </c>
       <c r="F3">
-        <v>5.827592025316591</v>
+        <v>1.206548084302881</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6664758657259995</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.516780462856758</v>
       </c>
       <c r="L3">
-        <v>0.2844073727671912</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.081408094022542</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688159322699846</v>
+        <v>1.055888448842779</v>
       </c>
       <c r="C4">
-        <v>0.3760843217487206</v>
+        <v>0.3302896030945135</v>
       </c>
       <c r="D4">
-        <v>0.3053857047247988</v>
+        <v>0.02810679503061664</v>
       </c>
       <c r="E4">
-        <v>0.03326228356602456</v>
+        <v>1.06523257712152</v>
       </c>
       <c r="F4">
-        <v>5.361376330947223</v>
+        <v>1.137891486450215</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6423459280939383</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.370565546600062</v>
       </c>
       <c r="L4">
-        <v>0.2599289620538485</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.098727691421665</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574390697253705</v>
+        <v>1.010542154504435</v>
       </c>
       <c r="C5">
-        <v>0.3594820757327568</v>
+        <v>0.3158564557341208</v>
       </c>
       <c r="D5">
-        <v>0.2966154138389214</v>
+        <v>0.02847964221964805</v>
       </c>
       <c r="E5">
-        <v>0.03287523313438001</v>
+        <v>1.01714018102291</v>
       </c>
       <c r="F5">
-        <v>5.174370822251916</v>
+        <v>1.110545333201159</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6328632505435152</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.311429154460541</v>
       </c>
       <c r="L5">
-        <v>0.2501285801123601</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.106194630483245</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555609946881475</v>
+        <v>1.00302967073074</v>
       </c>
       <c r="C6">
-        <v>0.3567378376074259</v>
+        <v>0.3134675135035252</v>
       </c>
       <c r="D6">
-        <v>0.295166860095776</v>
+        <v>0.02854169374968141</v>
       </c>
       <c r="E6">
-        <v>0.03281145695862264</v>
+        <v>1.009187573097904</v>
       </c>
       <c r="F6">
-        <v>5.143484678321641</v>
+        <v>1.106040893604984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6313089520127733</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.301634490566471</v>
       </c>
       <c r="L6">
-        <v>0.2485110672403863</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.107458563438406</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686617410685585</v>
+        <v>1.05527570564584</v>
       </c>
       <c r="C7">
-        <v>0.3758595472476429</v>
+        <v>0.3300944244428194</v>
       </c>
       <c r="D7">
-        <v>0.3052668908639902</v>
+        <v>0.02811181392321771</v>
       </c>
       <c r="E7">
-        <v>0.03325702983732448</v>
+        <v>1.064581702243345</v>
       </c>
       <c r="F7">
-        <v>5.35884288247712</v>
+        <v>1.137520209940178</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6422166622174785</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.369766298319576</v>
       </c>
       <c r="L7">
-        <v>0.2597961160940656</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.098826766651854</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282891889493442</v>
+        <v>1.288690050214996</v>
       </c>
       <c r="C8">
-        <v>0.4624007760197628</v>
+        <v>0.4047375538850702</v>
       </c>
       <c r="D8">
-        <v>0.3511374025061542</v>
+        <v>0.02623572612160974</v>
       </c>
       <c r="E8">
-        <v>0.03530368749230917</v>
+        <v>1.314574123019071</v>
       </c>
       <c r="F8">
-        <v>6.336722879386855</v>
+        <v>1.28215273859503</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6935108547479487</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.674549636743052</v>
       </c>
       <c r="L8">
-        <v>0.3111997331511702</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.064390569339963</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.541540760341377</v>
+        <v>1.760585629103502</v>
       </c>
       <c r="C9">
-        <v>0.6437437178677783</v>
+        <v>0.5573915625788004</v>
       </c>
       <c r="D9">
-        <v>0.4477488117742183</v>
+        <v>0.02263885027869783</v>
       </c>
       <c r="E9">
-        <v>0.03970568219355641</v>
+        <v>1.832913693370713</v>
       </c>
       <c r="F9">
-        <v>8.392101077003275</v>
+        <v>1.591021380866678</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8077319026523</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.292650006460661</v>
       </c>
       <c r="L9">
-        <v>0.4197629133534519</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.011689708888639</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.549247310466967</v>
+        <v>2.120156340986796</v>
       </c>
       <c r="C10">
-        <v>0.7887119663061242</v>
+        <v>0.6752508557569001</v>
       </c>
       <c r="D10">
-        <v>0.5251191044735322</v>
+        <v>0.02005735309876489</v>
       </c>
       <c r="E10">
-        <v>0.04329433714436171</v>
+        <v>2.240063428200301</v>
       </c>
       <c r="F10">
-        <v>10.03166138618573</v>
+        <v>1.83842434333117</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.9024294172590928</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.765306337788786</v>
       </c>
       <c r="L10">
-        <v>0.506597339048156</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9838461845581463</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.033866593517303</v>
+        <v>2.287621911872805</v>
       </c>
       <c r="C11">
-        <v>0.858560471229822</v>
+        <v>0.7305974938485917</v>
       </c>
       <c r="D11">
-        <v>0.5623679927705894</v>
+        <v>0.01890010608694315</v>
       </c>
       <c r="E11">
-        <v>0.04503767235551948</v>
+        <v>2.433480733714759</v>
       </c>
       <c r="F11">
-        <v>10.81858630513437</v>
+        <v>1.956736033600066</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9484888594977008</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.985934422621625</v>
       </c>
       <c r="L11">
-        <v>0.5483021741222274</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.9740173381868118</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.222018769731847</v>
+        <v>2.35170211834577</v>
       </c>
       <c r="C12">
-        <v>0.8857171566076261</v>
+        <v>0.7518527335341503</v>
       </c>
       <c r="D12">
-        <v>0.5768387970844913</v>
+        <v>0.01846480887326596</v>
       </c>
       <c r="E12">
-        <v>0.04571737791966335</v>
+        <v>2.508151239321279</v>
       </c>
       <c r="F12">
-        <v>11.12385119833556</v>
+        <v>2.002494032145364</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9664208735032531</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.070440536260151</v>
       </c>
       <c r="L12">
-        <v>0.5644820122678027</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9707498719841396</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.181274613748826</v>
+        <v>2.337869920304797</v>
       </c>
       <c r="C13">
-        <v>0.8798343604684931</v>
+        <v>0.7472610092108596</v>
       </c>
       <c r="D13">
-        <v>0.5737047072187522</v>
+        <v>0.01855841881815401</v>
       </c>
       <c r="E13">
-        <v>0.04557005563660432</v>
+        <v>2.492001713330154</v>
       </c>
       <c r="F13">
-        <v>11.05775841299601</v>
+        <v>1.992594508012658</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9625360139122563</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.052195333476732</v>
       </c>
       <c r="L13">
-        <v>0.5609788899710821</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.9714325548867748</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.04924736630602</v>
+        <v>2.292879858809215</v>
       </c>
       <c r="C14">
-        <v>0.8607795499762005</v>
+        <v>0.7323399317820076</v>
       </c>
       <c r="D14">
-        <v>0.5635507315478492</v>
+        <v>0.01886423209469701</v>
       </c>
       <c r="E14">
-        <v>0.04509317687890935</v>
+        <v>2.439593739219646</v>
       </c>
       <c r="F14">
-        <v>10.84354595224448</v>
+        <v>1.960480625565637</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.949953927268794</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.992866625734194</v>
       </c>
       <c r="L14">
-        <v>0.5496250826457185</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9737391233762338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.969009903640313</v>
+        <v>2.265412047845814</v>
       </c>
       <c r="C15">
-        <v>0.849204849678074</v>
+        <v>0.7232405081722106</v>
       </c>
       <c r="D15">
-        <v>0.5573810731993945</v>
+        <v>0.01905194894496276</v>
       </c>
       <c r="E15">
-        <v>0.04480374083887639</v>
+        <v>2.407686330137196</v>
       </c>
       <c r="F15">
-        <v>10.7133275297582</v>
+        <v>1.940938491295114</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9423128615162284</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.95665583941323</v>
       </c>
       <c r="L15">
-        <v>0.5427233108498513</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9752126430575174</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.518173654377108</v>
+        <v>2.109299067919153</v>
       </c>
       <c r="C16">
-        <v>0.784237402191394</v>
+        <v>0.6716725897678657</v>
       </c>
       <c r="D16">
-        <v>0.5227317750148757</v>
+        <v>0.02013336303524405</v>
       </c>
       <c r="E16">
-        <v>0.04318292654065026</v>
+        <v>2.227608487826885</v>
       </c>
       <c r="F16">
-        <v>9.981170846457502</v>
+        <v>1.83081888161496</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8994843911825683</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.75101324700762</v>
       </c>
       <c r="L16">
-        <v>0.5039218383756463</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9845494490707978</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.248873419965548</v>
+        <v>2.014596484917945</v>
       </c>
       <c r="C17">
-        <v>0.7454747586388919</v>
+        <v>0.6405127128531944</v>
       </c>
       <c r="D17">
-        <v>0.5020467363878538</v>
+        <v>0.02080144746876833</v>
       </c>
       <c r="E17">
-        <v>0.04221932091691194</v>
+        <v>2.119401423687904</v>
       </c>
       <c r="F17">
-        <v>9.543421911749704</v>
+        <v>1.764825980828718</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8740153306814662</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.626397707968408</v>
       </c>
       <c r="L17">
-        <v>0.4807282117886871</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.991035128455124</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.096384200570867</v>
+        <v>1.960485659663021</v>
       </c>
       <c r="C18">
-        <v>0.7235363521972431</v>
+        <v>0.6227501645812481</v>
       </c>
       <c r="D18">
-        <v>0.4903374828093945</v>
+        <v>0.02118728553165994</v>
       </c>
       <c r="E18">
-        <v>0.04167525662897198</v>
+        <v>2.057918626317615</v>
       </c>
       <c r="F18">
-        <v>9.295410274843334</v>
+        <v>1.727402898235965</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8596426494567382</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.555240378814005</v>
       </c>
       <c r="L18">
-        <v>0.4675902729153023</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9950294520846228</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.045143586199799</v>
+        <v>1.942223464281682</v>
       </c>
       <c r="C19">
-        <v>0.7161657640002375</v>
+        <v>0.6167621721295404</v>
       </c>
       <c r="D19">
-        <v>0.486403357322871</v>
+        <v>0.02131818166234911</v>
       </c>
       <c r="E19">
-        <v>0.0414926963322948</v>
+        <v>2.037224383242545</v>
       </c>
       <c r="F19">
-        <v>9.212048268108191</v>
+        <v>1.714820262908262</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8548220418676706</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.531232446099921</v>
       </c>
       <c r="L19">
-        <v>0.463174853453836</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9964258760225846</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.27728627274837</v>
+        <v>2.024639807070486</v>
       </c>
       <c r="C20">
-        <v>0.7495632276864796</v>
+        <v>0.6438128739416697</v>
       </c>
       <c r="D20">
-        <v>0.5042287512915493</v>
+        <v>0.02073016288639717</v>
       </c>
       <c r="E20">
-        <v>0.04232082159433226</v>
+        <v>2.130840439551719</v>
       </c>
       <c r="F20">
-        <v>9.589621880107416</v>
+        <v>1.771794877419751</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8766975241670849</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.639608576563489</v>
       </c>
       <c r="L20">
-        <v>0.4831758012271195</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9903170839611306</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.08789320704426</v>
+        <v>2.306075587978683</v>
       </c>
       <c r="C21">
-        <v>0.8663559011566235</v>
+        <v>0.7367141480646353</v>
       </c>
       <c r="D21">
-        <v>0.5665226435541797</v>
+        <v>0.01877432347642483</v>
       </c>
       <c r="E21">
-        <v>0.04523268450404316</v>
+        <v>2.454946301056538</v>
       </c>
       <c r="F21">
-        <v>10.90625554687188</v>
+        <v>1.969886211248024</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.953635750871598</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.010265562038597</v>
       </c>
       <c r="L21">
-        <v>0.5529488272903222</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.9730488903737609</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.645259448561092</v>
+        <v>2.493943499123645</v>
       </c>
       <c r="C22">
-        <v>0.9468998621783271</v>
+        <v>0.7991871145814287</v>
       </c>
       <c r="D22">
-        <v>0.6094103914120979</v>
+        <v>0.01751345105596869</v>
       </c>
       <c r="E22">
-        <v>0.04725198571962608</v>
+        <v>2.675236551206069</v>
       </c>
       <c r="F22">
-        <v>11.81001835727494</v>
+        <v>2.104994237268969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.006812238562333</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.258187917584479</v>
       </c>
       <c r="L22">
-        <v>0.6008507324659291</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9644388030067716</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.344916703530259</v>
+        <v>2.393276531069546</v>
       </c>
       <c r="C23">
-        <v>0.9034688332932603</v>
+        <v>0.7656657581745208</v>
       </c>
       <c r="D23">
-        <v>0.5862938040405936</v>
+        <v>0.01818462044042857</v>
       </c>
       <c r="E23">
-        <v>0.04616219106597619</v>
+        <v>2.556795207900208</v>
       </c>
       <c r="F23">
-        <v>11.32316903632869</v>
+        <v>2.032321550035348</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9781435781094387</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.125291793851432</v>
       </c>
       <c r="L23">
-        <v>0.575046511171621</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9687722303904565</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.264433611665311</v>
+        <v>2.020098185536568</v>
       </c>
       <c r="C24">
-        <v>0.7477137612796696</v>
+        <v>0.6423204021704692</v>
       </c>
       <c r="D24">
-        <v>0.5032416979064465</v>
+        <v>0.02076238523737128</v>
       </c>
       <c r="E24">
-        <v>0.04227490248340793</v>
+        <v>2.125666614544073</v>
       </c>
       <c r="F24">
-        <v>9.568723585636974</v>
+        <v>1.768642637920081</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.875484068609218</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.633634440882787</v>
       </c>
       <c r="L24">
-        <v>0.482068639437955</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.9906408879659239</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.188839329033442</v>
+        <v>1.631000715390314</v>
       </c>
       <c r="C25">
-        <v>0.5930130923990475</v>
+        <v>0.515242463367116</v>
       </c>
       <c r="D25">
-        <v>0.4206837043527827</v>
+        <v>0.0236021960107955</v>
       </c>
       <c r="E25">
-        <v>0.0384623511830906</v>
+        <v>1.688809453758964</v>
       </c>
       <c r="F25">
-        <v>7.817094376496357</v>
+        <v>1.504271638717839</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7751349109993413</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.12266545817576</v>
       </c>
       <c r="L25">
-        <v>0.3893454176644013</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.024182725290586</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.352751969760277</v>
+        <v>0.5322491666369729</v>
       </c>
       <c r="C2">
-        <v>0.4253251029817591</v>
+        <v>0.148941578193984</v>
       </c>
       <c r="D2">
-        <v>0.02573267461917261</v>
+        <v>0.04285421344134477</v>
       </c>
       <c r="E2">
-        <v>1.383913835254788</v>
+        <v>0.4085644444609926</v>
       </c>
       <c r="F2">
-        <v>1.3228802432169</v>
+        <v>1.32657660840006</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7082496450518576</v>
+        <v>0.9006924609901361</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.758310626606487</v>
+        <v>0.6678272695219789</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056002761250511</v>
+        <v>1.833030973039406</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.167926089405427</v>
+        <v>0.4838363878310474</v>
       </c>
       <c r="C3">
-        <v>0.3660457515746032</v>
+        <v>0.1334357997532436</v>
       </c>
       <c r="D3">
-        <v>0.02719763011930976</v>
+        <v>0.04310138727966706</v>
       </c>
       <c r="E3">
-        <v>1.18471703918145</v>
+        <v>0.3563942191803591</v>
       </c>
       <c r="F3">
-        <v>1.206548084302881</v>
+        <v>1.303922196792826</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6664758657259995</v>
+        <v>0.8946564304235025</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.516780462856758</v>
+        <v>0.6046018203161623</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.081408094022542</v>
+        <v>1.844413391541927</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.055888448842779</v>
+        <v>0.4543624287551609</v>
       </c>
       <c r="C4">
-        <v>0.3302896030945135</v>
+        <v>0.1239830996395312</v>
       </c>
       <c r="D4">
-        <v>0.02810679503061664</v>
+        <v>0.04325566482211674</v>
       </c>
       <c r="E4">
-        <v>1.06523257712152</v>
+        <v>0.324472434915549</v>
       </c>
       <c r="F4">
-        <v>1.137891486450215</v>
+        <v>1.290810902224877</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6423459280939383</v>
+        <v>0.8914314546030866</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.370565546600062</v>
+        <v>0.5660951004765593</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.098727691421665</v>
+        <v>1.852011909364464</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.010542154504435</v>
+        <v>0.4424144269603403</v>
       </c>
       <c r="C5">
-        <v>0.3158564557341208</v>
+        <v>0.1201477732944625</v>
       </c>
       <c r="D5">
-        <v>0.02847964221964805</v>
+        <v>0.04331916815633541</v>
       </c>
       <c r="E5">
-        <v>1.01714018102291</v>
+        <v>0.3114897092474536</v>
       </c>
       <c r="F5">
-        <v>1.110545333201159</v>
+        <v>1.285667909521351</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6328632505435152</v>
+        <v>0.8902378216161821</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.311429154460541</v>
+        <v>0.550481461417121</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.106194630483245</v>
+        <v>1.855261267521549</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.00302967073074</v>
+        <v>0.4404342561145995</v>
       </c>
       <c r="C6">
-        <v>0.3134675135035252</v>
+        <v>0.1195119202896819</v>
       </c>
       <c r="D6">
-        <v>0.02854169374968141</v>
+        <v>0.04332975120333593</v>
       </c>
       <c r="E6">
-        <v>1.009187573097904</v>
+        <v>0.3093354223705234</v>
       </c>
       <c r="F6">
-        <v>1.106040893604984</v>
+        <v>1.284825972328491</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6313089520127733</v>
+        <v>0.8900468896574978</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.301634490566471</v>
+        <v>0.5478935266658311</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107458563438406</v>
+        <v>1.855810044003206</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05527570564584</v>
+        <v>0.4542010397815091</v>
       </c>
       <c r="C7">
-        <v>0.3300944244428194</v>
+        <v>0.1239313078258988</v>
       </c>
       <c r="D7">
-        <v>0.02811181392321771</v>
+        <v>0.04325651868092084</v>
       </c>
       <c r="E7">
-        <v>1.064581702243345</v>
+        <v>0.3242972443614036</v>
       </c>
       <c r="F7">
-        <v>1.137520209940178</v>
+        <v>1.290740733503512</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6422166622174785</v>
+        <v>0.891414869232996</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.369766298319576</v>
+        <v>0.5658842140351226</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.098826766651854</v>
+        <v>1.852055112811811</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.288690050214996</v>
+        <v>0.5155039376263915</v>
       </c>
       <c r="C8">
-        <v>0.4047375538850702</v>
+        <v>0.143580874032665</v>
       </c>
       <c r="D8">
-        <v>0.02623572612160974</v>
+        <v>0.0429389190164704</v>
       </c>
       <c r="E8">
-        <v>1.314574123019071</v>
+        <v>0.3905517577016013</v>
       </c>
       <c r="F8">
-        <v>1.28215273859503</v>
+        <v>1.318599092568832</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6935108547479487</v>
+        <v>0.8985111103451757</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.674549636743052</v>
+        <v>0.6459614751505001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.064390569339963</v>
+        <v>1.836828849818254</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.760585629103502</v>
+        <v>0.6377411981186185</v>
       </c>
       <c r="C9">
-        <v>0.5573915625788004</v>
+        <v>0.1826703475796592</v>
       </c>
       <c r="D9">
-        <v>0.02263885027869783</v>
+        <v>0.04233592847687895</v>
       </c>
       <c r="E9">
-        <v>1.832913693370713</v>
+        <v>0.5214642814764403</v>
       </c>
       <c r="F9">
-        <v>1.591021380866678</v>
+        <v>1.379608874740796</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8077319026523</v>
+        <v>0.9162657130987881</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.292650006460661</v>
+        <v>0.8055281737803739</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.011689708888639</v>
+        <v>1.811825996508219</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.120156340986796</v>
+        <v>0.728827088558603</v>
       </c>
       <c r="C10">
-        <v>0.6752508557569001</v>
+        <v>0.2117565391003211</v>
       </c>
       <c r="D10">
-        <v>0.02005735309876489</v>
+        <v>0.04190484261217531</v>
       </c>
       <c r="E10">
-        <v>2.240063428200301</v>
+        <v>0.6184056745954365</v>
       </c>
       <c r="F10">
-        <v>1.83842434333117</v>
+        <v>1.428388380223964</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9024294172590928</v>
+        <v>0.9316821761194234</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.765306337788786</v>
+        <v>0.9243815531403641</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9838461845581463</v>
+        <v>1.796442202010823</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.287621911872805</v>
+        <v>0.7705524616295065</v>
       </c>
       <c r="C11">
-        <v>0.7305974938485917</v>
+        <v>0.2250745489456278</v>
       </c>
       <c r="D11">
-        <v>0.01890010608694315</v>
+        <v>0.04171129564394249</v>
       </c>
       <c r="E11">
-        <v>2.433480733714759</v>
+        <v>0.6627068190713317</v>
       </c>
       <c r="F11">
-        <v>1.956736033600066</v>
+        <v>1.451453276089978</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9484888594977008</v>
+        <v>0.9392177479239763</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.985934422621625</v>
+        <v>0.9788196776070777</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9740173381868118</v>
+        <v>1.790097694592916</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.35170211834577</v>
+        <v>0.7863951258750603</v>
       </c>
       <c r="C12">
-        <v>0.7518527335341503</v>
+        <v>0.2301306288500484</v>
       </c>
       <c r="D12">
-        <v>0.01846480887326596</v>
+        <v>0.04163837139386661</v>
       </c>
       <c r="E12">
-        <v>2.508151239321279</v>
+        <v>0.6795142584739295</v>
       </c>
       <c r="F12">
-        <v>2.002494032145364</v>
+        <v>1.460314252152472</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9664208735032531</v>
+        <v>0.9421469536610942</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.070440536260151</v>
+        <v>0.9994884738221401</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9707498719841396</v>
+        <v>1.787789673025387</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.337869920304797</v>
+        <v>0.782981241367338</v>
       </c>
       <c r="C13">
-        <v>0.7472610092108596</v>
+        <v>0.2290411342735013</v>
       </c>
       <c r="D13">
-        <v>0.01855841881815401</v>
+        <v>0.04165406057031529</v>
       </c>
       <c r="E13">
-        <v>2.492001713330154</v>
+        <v>0.6758930318468259</v>
       </c>
       <c r="F13">
-        <v>1.992594508012658</v>
+        <v>1.458400226884365</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9625360139122563</v>
+        <v>0.9415127241689731</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.052195333476732</v>
+        <v>0.9950346511192265</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9714325548867748</v>
+        <v>1.788282535383573</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.292879858809215</v>
+        <v>0.771854999204038</v>
       </c>
       <c r="C14">
-        <v>0.7323399317820076</v>
+        <v>0.2254902561120957</v>
       </c>
       <c r="D14">
-        <v>0.01886423209469701</v>
+        <v>0.04170528874809865</v>
       </c>
       <c r="E14">
-        <v>2.439593739219646</v>
+        <v>0.6640889302758097</v>
       </c>
       <c r="F14">
-        <v>1.960480625565637</v>
+        <v>1.452179726887422</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.949953927268794</v>
+        <v>0.9394572164113271</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.992866625734194</v>
+        <v>0.9805190192854809</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9737391233762338</v>
+        <v>1.789905915284933</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.265412047845814</v>
+        <v>0.7650453609039687</v>
       </c>
       <c r="C15">
-        <v>0.7232405081722106</v>
+        <v>0.2233169244070439</v>
       </c>
       <c r="D15">
-        <v>0.01905194894496276</v>
+        <v>0.04173671539700319</v>
       </c>
       <c r="E15">
-        <v>2.407686330137196</v>
+        <v>0.6568627619730165</v>
       </c>
       <c r="F15">
-        <v>1.940938491295114</v>
+        <v>1.448386034050387</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9423128615162284</v>
+        <v>0.9382080253555358</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.95665583941323</v>
+        <v>0.9716348686936556</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9752126430575174</v>
+        <v>1.7909126050574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.109299067919153</v>
+        <v>0.7261061122512444</v>
       </c>
       <c r="C16">
-        <v>0.6716725897678657</v>
+        <v>0.2108879509359838</v>
       </c>
       <c r="D16">
-        <v>0.02013336303524405</v>
+        <v>0.04191754280628146</v>
       </c>
       <c r="E16">
-        <v>2.227608487826885</v>
+        <v>0.6155147692806793</v>
       </c>
       <c r="F16">
-        <v>1.83081888161496</v>
+        <v>1.426898724295611</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8994843911825683</v>
+        <v>0.9312002668924535</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.75101324700762</v>
+        <v>0.9208314375737814</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9845494490707978</v>
+        <v>1.796870027223136</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.014596484917945</v>
+        <v>0.702292741992153</v>
       </c>
       <c r="C17">
-        <v>0.6405127128531944</v>
+        <v>0.2032856243754679</v>
       </c>
       <c r="D17">
-        <v>0.02080144746876833</v>
+        <v>0.04202912927031388</v>
       </c>
       <c r="E17">
-        <v>2.119401423687904</v>
+        <v>0.5902026297404319</v>
       </c>
       <c r="F17">
-        <v>1.764825980828718</v>
+        <v>1.413941732251487</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8740153306814662</v>
+        <v>0.9270354288371081</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.626397707968408</v>
+        <v>0.8897608618552511</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.991035128455124</v>
+        <v>1.800692491028158</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.960485659663021</v>
+        <v>0.6886231829302574</v>
       </c>
       <c r="C18">
-        <v>0.6227501645812481</v>
+        <v>0.1989210904332879</v>
       </c>
       <c r="D18">
-        <v>0.02118728553165994</v>
+        <v>0.0420935514088896</v>
       </c>
       <c r="E18">
-        <v>2.057918626317615</v>
+        <v>0.5756626194184378</v>
       </c>
       <c r="F18">
-        <v>1.727402898235965</v>
+        <v>1.406571498063172</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8596426494567382</v>
+        <v>0.9246890778696226</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.555240378814005</v>
+        <v>0.871924766194212</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9950294520846228</v>
+        <v>1.802952565514531</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.942223464281682</v>
+        <v>0.6839995729816337</v>
       </c>
       <c r="C19">
-        <v>0.6167621721295404</v>
+        <v>0.1974447175521163</v>
       </c>
       <c r="D19">
-        <v>0.02131818166234911</v>
+        <v>0.04211540495426558</v>
       </c>
       <c r="E19">
-        <v>2.037224383242545</v>
+        <v>0.5707427856592346</v>
       </c>
       <c r="F19">
-        <v>1.714820262908262</v>
+        <v>1.404090165742616</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8548220418676706</v>
+        <v>0.9239030706131359</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.531232446099921</v>
+        <v>0.865891734044169</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9964258760225846</v>
+        <v>1.803728334181017</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.024639807070486</v>
+        <v>0.7048248910092241</v>
       </c>
       <c r="C20">
-        <v>0.6438128739416697</v>
+        <v>0.2040940614683961</v>
       </c>
       <c r="D20">
-        <v>0.02073016288639717</v>
+        <v>0.04201722580508882</v>
       </c>
       <c r="E20">
-        <v>2.130840439551719</v>
+        <v>0.5928951798732527</v>
       </c>
       <c r="F20">
-        <v>1.771794877419751</v>
+        <v>1.415312502843051</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8766975241670849</v>
+        <v>0.9274736921074904</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.639608576563489</v>
+        <v>0.8930647615580085</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9903170839611306</v>
+        <v>1.800279215160657</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.306075587978683</v>
+        <v>0.7751218978558541</v>
       </c>
       <c r="C21">
-        <v>0.7367141480646353</v>
+        <v>0.2265328835128742</v>
       </c>
       <c r="D21">
-        <v>0.01877432347642483</v>
+        <v>0.04169023180484732</v>
       </c>
       <c r="E21">
-        <v>2.454946301056538</v>
+        <v>0.6675552044232091</v>
       </c>
       <c r="F21">
-        <v>1.969886211248024</v>
+        <v>1.454003389171064</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.953635750871598</v>
+        <v>0.9400589117189071</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.010265562038597</v>
+        <v>0.9847811324195845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9730488903737609</v>
+        <v>1.789426520291698</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.493943499123645</v>
+        <v>0.8213110909341594</v>
       </c>
       <c r="C22">
-        <v>0.7991871145814287</v>
+        <v>0.2412729701814271</v>
       </c>
       <c r="D22">
-        <v>0.01751345105596869</v>
+        <v>0.04147866647858489</v>
       </c>
       <c r="E22">
-        <v>2.675236551206069</v>
+        <v>0.7165349768227713</v>
       </c>
       <c r="F22">
-        <v>2.104994237268969</v>
+        <v>1.480029683914438</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.006812238562333</v>
+        <v>0.9487252564708655</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.258187917584479</v>
+        <v>1.045039778078944</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9644388030067716</v>
+        <v>1.782884750697875</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.393276531069546</v>
+        <v>0.7966363761141224</v>
       </c>
       <c r="C23">
-        <v>0.7656657581745208</v>
+        <v>0.2333989132157512</v>
       </c>
       <c r="D23">
-        <v>0.01818462044042857</v>
+        <v>0.04159138649835015</v>
       </c>
       <c r="E23">
-        <v>2.556795207900208</v>
+        <v>0.6903757731970188</v>
       </c>
       <c r="F23">
-        <v>2.032321550035348</v>
+        <v>1.466070957124089</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9781435781094387</v>
+        <v>0.9440593281664604</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.125291793851432</v>
+        <v>1.012849327666316</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9687722303904565</v>
+        <v>1.786325620449375</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.020098185536568</v>
+        <v>0.7036800408627357</v>
       </c>
       <c r="C24">
-        <v>0.6423204021704692</v>
+        <v>0.2037285479497939</v>
       </c>
       <c r="D24">
-        <v>0.02076238523737128</v>
+        <v>0.04202260652043233</v>
       </c>
       <c r="E24">
-        <v>2.125666614544073</v>
+        <v>0.5916778399363523</v>
       </c>
       <c r="F24">
-        <v>1.768642637920081</v>
+        <v>1.414692531722196</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.875484068609218</v>
+        <v>0.9272754035829394</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.633634440882787</v>
+        <v>0.8915709851204952</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9906408879659239</v>
+        <v>1.800465862557914</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.631000715390314</v>
+        <v>0.6044516289914554</v>
       </c>
       <c r="C25">
-        <v>0.515242463367116</v>
+        <v>0.172033157138344</v>
       </c>
       <c r="D25">
-        <v>0.0236021960107955</v>
+        <v>0.04249694873438425</v>
       </c>
       <c r="E25">
-        <v>1.688809453758964</v>
+        <v>0.4859270393275779</v>
       </c>
       <c r="F25">
-        <v>1.504271638717839</v>
+        <v>1.362414310711188</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7751349109993413</v>
+        <v>0.9110483733830534</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.12266545817576</v>
+        <v>0.7620821232947605</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.024182725290586</v>
+        <v>1.81806746688487</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5322491666369729</v>
+        <v>1.352751969760249</v>
       </c>
       <c r="C2">
-        <v>0.148941578193984</v>
+        <v>0.4253251029817022</v>
       </c>
       <c r="D2">
-        <v>0.04285421344134477</v>
+        <v>0.02573267461916995</v>
       </c>
       <c r="E2">
-        <v>0.4085644444609926</v>
+        <v>1.383913835254745</v>
       </c>
       <c r="F2">
-        <v>1.32657660840006</v>
+        <v>1.322880243216929</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9006924609901361</v>
+        <v>0.7082496450518718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6678272695219789</v>
+        <v>1.758310626606374</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.833030973039406</v>
+        <v>1.056002761250454</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4838363878310474</v>
+        <v>1.167926089405455</v>
       </c>
       <c r="C3">
-        <v>0.1334357997532436</v>
+        <v>0.3660457515746032</v>
       </c>
       <c r="D3">
-        <v>0.04310138727966706</v>
+        <v>0.02719763011942433</v>
       </c>
       <c r="E3">
-        <v>0.3563942191803591</v>
+        <v>1.184717039181436</v>
       </c>
       <c r="F3">
-        <v>1.303922196792826</v>
+        <v>1.206548084302881</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8946564304235025</v>
+        <v>0.6664758657260137</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6046018203161623</v>
+        <v>1.516780462856758</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.844413391541927</v>
+        <v>1.081408094022549</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4543624287551609</v>
+        <v>1.055888448842666</v>
       </c>
       <c r="C4">
-        <v>0.1239830996395312</v>
+        <v>0.3302896030943714</v>
       </c>
       <c r="D4">
-        <v>0.04325566482211674</v>
+        <v>0.02810679503072944</v>
       </c>
       <c r="E4">
-        <v>0.324472434915549</v>
+        <v>1.065232577121535</v>
       </c>
       <c r="F4">
-        <v>1.290810902224877</v>
+        <v>1.137891486450215</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8914314546030866</v>
+        <v>0.6423459280939383</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5660951004765593</v>
+        <v>1.370565546600005</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.852011909364464</v>
+        <v>1.098727691421722</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4424144269603403</v>
+        <v>1.010542154504435</v>
       </c>
       <c r="C5">
-        <v>0.1201477732944625</v>
+        <v>0.3158564557342345</v>
       </c>
       <c r="D5">
-        <v>0.04331916815633541</v>
+        <v>0.0284796422196516</v>
       </c>
       <c r="E5">
-        <v>0.3114897092474536</v>
+        <v>1.017140181022882</v>
       </c>
       <c r="F5">
-        <v>1.285667909521351</v>
+        <v>1.110545333201159</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8902378216161821</v>
+        <v>0.6328632505435223</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.550481461417121</v>
+        <v>1.311429154460569</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.855261267521549</v>
+        <v>1.106194630483287</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4404342561145995</v>
+        <v>1.003029670730626</v>
       </c>
       <c r="C6">
-        <v>0.1195119202896819</v>
+        <v>0.3134675135034968</v>
       </c>
       <c r="D6">
-        <v>0.04332975120333593</v>
+        <v>0.02854169374967608</v>
       </c>
       <c r="E6">
-        <v>0.3093354223705234</v>
+        <v>1.00918757309789</v>
       </c>
       <c r="F6">
-        <v>1.284825972328491</v>
+        <v>1.10604089360497</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8900468896574978</v>
+        <v>0.6313089520127662</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5478935266658311</v>
+        <v>1.301634490566414</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.855810044003206</v>
+        <v>1.107458563438435</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4542010397815091</v>
+        <v>1.055275705645812</v>
       </c>
       <c r="C7">
-        <v>0.1239313078258988</v>
+        <v>0.3300944244427058</v>
       </c>
       <c r="D7">
-        <v>0.04325651868092084</v>
+        <v>0.02811181392313511</v>
       </c>
       <c r="E7">
-        <v>0.3242972443614036</v>
+        <v>1.064581702243331</v>
       </c>
       <c r="F7">
-        <v>1.290740733503512</v>
+        <v>1.137520209940192</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.891414869232996</v>
+        <v>0.6422166622174785</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5658842140351226</v>
+        <v>1.369766298319576</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.852055112811811</v>
+        <v>1.098826766651797</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5155039376263915</v>
+        <v>1.288690050214967</v>
       </c>
       <c r="C8">
-        <v>0.143580874032665</v>
+        <v>0.4047375538851838</v>
       </c>
       <c r="D8">
-        <v>0.0429389190164704</v>
+        <v>0.02623572612175273</v>
       </c>
       <c r="E8">
-        <v>0.3905517577016013</v>
+        <v>1.314574123019142</v>
       </c>
       <c r="F8">
-        <v>1.318599092568832</v>
+        <v>1.282152738595059</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8985111103451757</v>
+        <v>0.6935108547479487</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6459614751505001</v>
+        <v>1.674549636742938</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.836828849818254</v>
+        <v>1.064390569340006</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6377411981186185</v>
+        <v>1.760585629103389</v>
       </c>
       <c r="C9">
-        <v>0.1826703475796592</v>
+        <v>0.5573915625787151</v>
       </c>
       <c r="D9">
-        <v>0.04233592847687895</v>
+        <v>0.02263885027879731</v>
       </c>
       <c r="E9">
-        <v>0.5214642814764403</v>
+        <v>1.832913693370671</v>
       </c>
       <c r="F9">
-        <v>1.379608874740796</v>
+        <v>1.591021380866678</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9162657130987881</v>
+        <v>0.8077319026522929</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8055281737803739</v>
+        <v>2.292650006460718</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.811825996508219</v>
+        <v>1.011689708888738</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.728827088558603</v>
+        <v>2.120156340986796</v>
       </c>
       <c r="C10">
-        <v>0.2117565391003211</v>
+        <v>0.6752508557569001</v>
       </c>
       <c r="D10">
-        <v>0.04190484261217531</v>
+        <v>0.0200573530984558</v>
       </c>
       <c r="E10">
-        <v>0.6184056745954365</v>
+        <v>2.240063428200244</v>
       </c>
       <c r="F10">
-        <v>1.428388380223964</v>
+        <v>1.838424343331184</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9316821761194234</v>
+        <v>0.9024294172590999</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9243815531403641</v>
+        <v>2.765306337788701</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.796442202010823</v>
+        <v>0.9838461845581463</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7705524616295065</v>
+        <v>2.287621911872691</v>
       </c>
       <c r="C11">
-        <v>0.2250745489456278</v>
+        <v>0.730597493848677</v>
       </c>
       <c r="D11">
-        <v>0.04171129564394249</v>
+        <v>0.01890010608671222</v>
       </c>
       <c r="E11">
-        <v>0.6627068190713317</v>
+        <v>2.433480733714774</v>
       </c>
       <c r="F11">
-        <v>1.451453276089978</v>
+        <v>1.956736033600066</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9392177479239763</v>
+        <v>0.9484888594976866</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9788196776070777</v>
+        <v>2.985934422621568</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.790097694592916</v>
+        <v>0.9740173381868118</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7863951258750603</v>
+        <v>2.35170211834577</v>
       </c>
       <c r="C12">
-        <v>0.2301306288500484</v>
+        <v>0.7518527335341219</v>
       </c>
       <c r="D12">
-        <v>0.04163837139386661</v>
+        <v>0.01846480887338231</v>
       </c>
       <c r="E12">
-        <v>0.6795142584739295</v>
+        <v>2.508151239321293</v>
       </c>
       <c r="F12">
-        <v>1.460314252152472</v>
+        <v>2.002494032145393</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9421469536610942</v>
+        <v>0.9664208735032673</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9994884738221401</v>
+        <v>3.070440536260094</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.787789673025387</v>
+        <v>0.9707498719841539</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.782981241367338</v>
+        <v>2.337869920304797</v>
       </c>
       <c r="C13">
-        <v>0.2290411342735013</v>
+        <v>0.7472610092110017</v>
       </c>
       <c r="D13">
-        <v>0.04165406057031529</v>
+        <v>0.01855841881804654</v>
       </c>
       <c r="E13">
-        <v>0.6758930318468259</v>
+        <v>2.492001713330097</v>
       </c>
       <c r="F13">
-        <v>1.458400226884365</v>
+        <v>1.992594508012687</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9415127241689731</v>
+        <v>0.9625360139122847</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9950346511192265</v>
+        <v>3.052195333476732</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.788282535383573</v>
+        <v>0.9714325548867038</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.771854999204038</v>
+        <v>2.292879858809044</v>
       </c>
       <c r="C14">
-        <v>0.2254902561120957</v>
+        <v>0.7323399317816381</v>
       </c>
       <c r="D14">
-        <v>0.04170528874809865</v>
+        <v>0.01886423209459664</v>
       </c>
       <c r="E14">
-        <v>0.6640889302758097</v>
+        <v>2.43959373921966</v>
       </c>
       <c r="F14">
-        <v>1.452179726887422</v>
+        <v>1.960480625565651</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9394572164113271</v>
+        <v>0.9499539272688082</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9805190192854809</v>
+        <v>2.99286662573428</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.789905915284933</v>
+        <v>0.9737391233761912</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7650453609039687</v>
+        <v>2.265412047845814</v>
       </c>
       <c r="C15">
-        <v>0.2233169244070439</v>
+        <v>0.7232405081718127</v>
       </c>
       <c r="D15">
-        <v>0.04173671539700319</v>
+        <v>0.01905194894485529</v>
       </c>
       <c r="E15">
-        <v>0.6568627619730165</v>
+        <v>2.407686330137267</v>
       </c>
       <c r="F15">
-        <v>1.448386034050387</v>
+        <v>1.940938491295128</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9382080253555358</v>
+        <v>0.9423128615162426</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9716348686936556</v>
+        <v>2.956655839413145</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.7909126050574</v>
+        <v>0.9752126430575174</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7261061122512444</v>
+        <v>2.109299067919153</v>
       </c>
       <c r="C16">
-        <v>0.2108879509359838</v>
+        <v>0.6716725897680362</v>
       </c>
       <c r="D16">
-        <v>0.04191754280628146</v>
+        <v>0.02013336303521029</v>
       </c>
       <c r="E16">
-        <v>0.6155147692806793</v>
+        <v>2.227608487826927</v>
       </c>
       <c r="F16">
-        <v>1.426898724295611</v>
+        <v>1.830818881614974</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9312002668924535</v>
+        <v>0.899484391182547</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9208314375737814</v>
+        <v>2.751013247007705</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.796870027223136</v>
+        <v>0.9845494490707978</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.702292741992153</v>
+        <v>2.014596484917888</v>
       </c>
       <c r="C17">
-        <v>0.2032856243754679</v>
+        <v>0.6405127128531944</v>
       </c>
       <c r="D17">
-        <v>0.04202912927031388</v>
+        <v>0.02080144746895218</v>
       </c>
       <c r="E17">
-        <v>0.5902026297404319</v>
+        <v>2.119401423687947</v>
       </c>
       <c r="F17">
-        <v>1.413941732251487</v>
+        <v>1.764825980828746</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9270354288371081</v>
+        <v>0.8740153306814946</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8897608618552511</v>
+        <v>2.626397707968408</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.800692491028158</v>
+        <v>0.9910351284551666</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6886231829302574</v>
+        <v>1.96048565966305</v>
       </c>
       <c r="C18">
-        <v>0.1989210904332879</v>
+        <v>0.6227501645813049</v>
       </c>
       <c r="D18">
-        <v>0.0420935514088896</v>
+        <v>0.02118728553154003</v>
       </c>
       <c r="E18">
-        <v>0.5756626194184378</v>
+        <v>2.057918626317644</v>
       </c>
       <c r="F18">
-        <v>1.406571498063172</v>
+        <v>1.727402898235965</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9246890778696226</v>
+        <v>0.8596426494567524</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.871924766194212</v>
+        <v>2.555240378814034</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.802952565514531</v>
+        <v>0.9950294520845944</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6839995729816337</v>
+        <v>1.942223464281682</v>
       </c>
       <c r="C19">
-        <v>0.1974447175521163</v>
+        <v>0.6167621721294552</v>
       </c>
       <c r="D19">
-        <v>0.04211540495426558</v>
+        <v>0.02131818166254895</v>
       </c>
       <c r="E19">
-        <v>0.5707427856592346</v>
+        <v>2.03722438324256</v>
       </c>
       <c r="F19">
-        <v>1.404090165742616</v>
+        <v>1.714820262908276</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9239030706131359</v>
+        <v>0.8548220418676635</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.865891734044169</v>
+        <v>2.531232446099978</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.803728334181017</v>
+        <v>0.996425876022542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7048248910092241</v>
+        <v>2.0246398070704</v>
       </c>
       <c r="C20">
-        <v>0.2040940614683961</v>
+        <v>0.6438128739416413</v>
       </c>
       <c r="D20">
-        <v>0.04201722580508882</v>
+        <v>0.02073016288630569</v>
       </c>
       <c r="E20">
-        <v>0.5928951798732527</v>
+        <v>2.130840439551733</v>
       </c>
       <c r="F20">
-        <v>1.415312502843051</v>
+        <v>1.771794877419779</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9274736921074904</v>
+        <v>0.876697524167092</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8930647615580085</v>
+        <v>2.639608576563518</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.800279215160657</v>
+        <v>0.990317083961159</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7751218978558541</v>
+        <v>2.306075587978626</v>
       </c>
       <c r="C21">
-        <v>0.2265328835128742</v>
+        <v>0.7367141480645216</v>
       </c>
       <c r="D21">
-        <v>0.04169023180484732</v>
+        <v>0.01877432347642216</v>
       </c>
       <c r="E21">
-        <v>0.6675552044232091</v>
+        <v>2.454946301056523</v>
       </c>
       <c r="F21">
-        <v>1.454003389171064</v>
+        <v>1.969886211248053</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9400589117189071</v>
+        <v>0.953635750871598</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9847811324195845</v>
+        <v>3.01026556203837</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.789426520291698</v>
+        <v>0.9730488903737609</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8213110909341594</v>
+        <v>2.493943499123702</v>
       </c>
       <c r="C22">
-        <v>0.2412729701814271</v>
+        <v>0.7991871145815992</v>
       </c>
       <c r="D22">
-        <v>0.04147866647858489</v>
+        <v>0.01751345105596691</v>
       </c>
       <c r="E22">
-        <v>0.7165349768227713</v>
+        <v>2.675236551206098</v>
       </c>
       <c r="F22">
-        <v>1.480029683914438</v>
+        <v>2.104994237268954</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9487252564708655</v>
+        <v>1.006812238562333</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.045039778078944</v>
+        <v>3.258187917584479</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.782884750697875</v>
+        <v>0.9644388030067859</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7966363761141224</v>
+        <v>2.393276531069546</v>
       </c>
       <c r="C23">
-        <v>0.2333989132157512</v>
+        <v>0.7656657581742934</v>
       </c>
       <c r="D23">
-        <v>0.04159138649835015</v>
+        <v>0.01818462044032909</v>
       </c>
       <c r="E23">
-        <v>0.6903757731970188</v>
+        <v>2.55679520790018</v>
       </c>
       <c r="F23">
-        <v>1.466070957124089</v>
+        <v>2.032321550035363</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9440593281664604</v>
+        <v>0.9781435781094245</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.012849327666316</v>
+        <v>3.125291793851346</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.786325620449375</v>
+        <v>0.9687722303904707</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7036800408627357</v>
+        <v>2.020098185536568</v>
       </c>
       <c r="C24">
-        <v>0.2037285479497939</v>
+        <v>0.642320402170526</v>
       </c>
       <c r="D24">
-        <v>0.04202260652043233</v>
+        <v>0.02076238523747342</v>
       </c>
       <c r="E24">
-        <v>0.5916778399363523</v>
+        <v>2.125666614544144</v>
       </c>
       <c r="F24">
-        <v>1.414692531722196</v>
+        <v>1.768642637920081</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9272754035829394</v>
+        <v>0.875484068609218</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8915709851204952</v>
+        <v>2.633634440882844</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.800465862557914</v>
+        <v>0.9906408879659097</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6044516289914554</v>
+        <v>1.631000715390257</v>
       </c>
       <c r="C25">
-        <v>0.172033157138344</v>
+        <v>0.5152424633669739</v>
       </c>
       <c r="D25">
-        <v>0.04249694873438425</v>
+        <v>0.02360219601078395</v>
       </c>
       <c r="E25">
-        <v>0.4859270393275779</v>
+        <v>1.688809453759006</v>
       </c>
       <c r="F25">
-        <v>1.362414310711188</v>
+        <v>1.504271638717839</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9110483733830534</v>
+        <v>0.7751349109993342</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7620821232947605</v>
+        <v>2.12266545817576</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.81806746688487</v>
+        <v>1.024182725290643</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.352751969760249</v>
+        <v>3.386095570792349</v>
       </c>
       <c r="C2">
-        <v>0.4253251029817022</v>
+        <v>0.8596963443546031</v>
       </c>
       <c r="D2">
-        <v>0.02573267461916995</v>
+        <v>0.07571053613783718</v>
       </c>
       <c r="E2">
-        <v>1.383913835254745</v>
+        <v>0.03400123908623298</v>
       </c>
       <c r="F2">
-        <v>1.322880243216929</v>
+        <v>2.589154847199978</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008820514871077378</v>
       </c>
       <c r="I2">
-        <v>0.7082496450518718</v>
+        <v>0.001778504291663374</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>1.758310626606374</v>
+        <v>1.573320511788452</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056002761250454</v>
+        <v>0.3889666722534457</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.167926089405455</v>
+        <v>2.946871624134701</v>
       </c>
       <c r="C3">
-        <v>0.3660457515746032</v>
+        <v>0.7433840767104414</v>
       </c>
       <c r="D3">
-        <v>0.02719763011942433</v>
+        <v>0.07237597066809442</v>
       </c>
       <c r="E3">
-        <v>1.184717039181436</v>
+        <v>0.02952648120609114</v>
       </c>
       <c r="F3">
-        <v>1.206548084302881</v>
+        <v>2.324826441550471</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002569074422124062</v>
       </c>
       <c r="I3">
-        <v>0.6664758657260137</v>
+        <v>0.004055301794323452</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.516780462856758</v>
+        <v>1.440539267942754</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.081408094022549</v>
+        <v>0.3390544221424108</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.055888448842666</v>
+        <v>2.678038573148228</v>
       </c>
       <c r="C4">
-        <v>0.3302896030943714</v>
+        <v>0.6729667311227843</v>
       </c>
       <c r="D4">
-        <v>0.02810679503072944</v>
+        <v>0.07023799906947659</v>
       </c>
       <c r="E4">
-        <v>1.065232577121535</v>
+        <v>0.02686357825411134</v>
       </c>
       <c r="F4">
-        <v>1.137891486450215</v>
+        <v>2.163212200818123</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004089159531277309</v>
       </c>
       <c r="I4">
-        <v>0.6423459280939383</v>
+        <v>0.006100483930550293</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>1.370565546600005</v>
+        <v>1.358851807839301</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.098727691421722</v>
+        <v>0.3085814210582782</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.010542154504435</v>
+        <v>2.56863505423587</v>
       </c>
       <c r="C5">
-        <v>0.3158564557342345</v>
+        <v>0.6451799262783311</v>
       </c>
       <c r="D5">
-        <v>0.0284796422196516</v>
+        <v>0.06913775694646063</v>
       </c>
       <c r="E5">
-        <v>1.017140181022882</v>
+        <v>0.02577444228660752</v>
       </c>
       <c r="F5">
-        <v>1.110545333201159</v>
+        <v>2.093058782241641</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004828644921796021</v>
       </c>
       <c r="I5">
-        <v>0.6328632505435223</v>
+        <v>0.007171623802896487</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>1.311429154460569</v>
+        <v>1.322071240131777</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.106194630483287</v>
+        <v>0.296254054358883</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.003029670730626</v>
+        <v>2.550457534415102</v>
       </c>
       <c r="C6">
-        <v>0.3134675135034968</v>
+        <v>0.6414242403643868</v>
       </c>
       <c r="D6">
-        <v>0.02854169374967608</v>
+        <v>0.06870281418836655</v>
       </c>
       <c r="E6">
-        <v>1.00918757309789</v>
+        <v>0.02556836147347363</v>
       </c>
       <c r="F6">
-        <v>1.10604089360497</v>
+        <v>2.076022675852158</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004965234291450682</v>
       </c>
       <c r="I6">
-        <v>0.6313089520127662</v>
+        <v>0.007470015271544561</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>1.301634490566414</v>
+        <v>1.311772685177502</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107458563438435</v>
+        <v>0.2942773196619726</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.055275705645812</v>
+        <v>2.676498485961872</v>
       </c>
       <c r="C7">
-        <v>0.3300944244427058</v>
+        <v>0.6749051017241356</v>
       </c>
       <c r="D7">
-        <v>0.02811181392313511</v>
+        <v>0.0695353453196681</v>
       </c>
       <c r="E7">
-        <v>1.064581702243331</v>
+        <v>0.02677644948625524</v>
       </c>
       <c r="F7">
-        <v>1.137520209940192</v>
+        <v>2.147492677687524</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004115929156242482</v>
       </c>
       <c r="I7">
-        <v>0.6422166622174785</v>
+        <v>0.00639864637590648</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>1.369766298319576</v>
+        <v>1.346886143756279</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.098826766651797</v>
+        <v>0.3086017358785682</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.288690050214967</v>
+        <v>3.234309858437541</v>
       </c>
       <c r="C8">
-        <v>0.4047375538851838</v>
+        <v>0.8224431549712961</v>
       </c>
       <c r="D8">
-        <v>0.02623572612175273</v>
+        <v>0.07366261516784434</v>
       </c>
       <c r="E8">
-        <v>1.314574123019142</v>
+        <v>0.03233871898676322</v>
       </c>
       <c r="F8">
-        <v>1.282152738595059</v>
+        <v>2.478125966264088</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001371393493413642</v>
       </c>
       <c r="I8">
-        <v>0.6935108547479487</v>
+        <v>0.002746164149899144</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.674549636742938</v>
+        <v>1.512257169472775</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.064390569340006</v>
+        <v>0.3719623377091494</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.760585629103389</v>
+        <v>4.33765009517208</v>
       </c>
       <c r="C9">
-        <v>0.5573915625787151</v>
+        <v>1.117122305539453</v>
       </c>
       <c r="D9">
-        <v>0.02263885027879731</v>
+        <v>0.08229011012305421</v>
       </c>
       <c r="E9">
-        <v>1.832913693370671</v>
+        <v>0.04424041474477436</v>
       </c>
       <c r="F9">
-        <v>1.591021380866678</v>
+        <v>3.161315805865769</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001840706656226487</v>
       </c>
       <c r="I9">
-        <v>0.8077319026522929</v>
+        <v>0.0008242769473687517</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>2.292650006460718</v>
+        <v>1.857227348833987</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.011689708888738</v>
+        <v>0.4976804613125978</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.120156340986796</v>
+        <v>5.156483207631709</v>
       </c>
       <c r="C10">
-        <v>0.6752508557569001</v>
+        <v>1.349187934956092</v>
       </c>
       <c r="D10">
-        <v>0.0200573530984558</v>
+        <v>0.08447783393248187</v>
       </c>
       <c r="E10">
-        <v>2.240063428200244</v>
+        <v>0.05257133049991447</v>
       </c>
       <c r="F10">
-        <v>1.838424343331184</v>
+        <v>3.589718433581396</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002444517489609499</v>
       </c>
       <c r="I10">
-        <v>0.9024294172590999</v>
+        <v>0.003618721172671258</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>2.765306337788701</v>
+        <v>2.050596666568438</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9838461845581463</v>
+        <v>0.5697585652923038</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.287621911872691</v>
+        <v>5.520671568272633</v>
       </c>
       <c r="C11">
-        <v>0.730597493848677</v>
+        <v>1.516955614204676</v>
       </c>
       <c r="D11">
-        <v>0.01890010608671222</v>
+        <v>0.06010970347197642</v>
       </c>
       <c r="E11">
-        <v>2.433480733714774</v>
+        <v>0.05314838008071954</v>
       </c>
       <c r="F11">
-        <v>1.956736033600066</v>
+        <v>3.134599505344227</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0212468168956832</v>
       </c>
       <c r="I11">
-        <v>0.9484888594976866</v>
+        <v>0.005199830742711242</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>2.985934422621568</v>
+        <v>1.661892072480242</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9740173381868118</v>
+        <v>0.4254343437332579</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.35170211834577</v>
+        <v>5.65489584864747</v>
       </c>
       <c r="C12">
-        <v>0.7518527335341219</v>
+        <v>1.608597348907381</v>
       </c>
       <c r="D12">
-        <v>0.01846480887338231</v>
+        <v>0.04663684234785315</v>
       </c>
       <c r="E12">
-        <v>2.508151239321293</v>
+        <v>0.06124352796041599</v>
       </c>
       <c r="F12">
-        <v>2.002494032145393</v>
+        <v>2.710563160761268</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05969146080217058</v>
       </c>
       <c r="I12">
-        <v>0.9664208735032673</v>
+        <v>0.00529767041359186</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>3.070440536260094</v>
+        <v>1.345265692239849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9707498719841539</v>
+        <v>0.3075990997082698</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.337869920304797</v>
+        <v>5.618142980864093</v>
       </c>
       <c r="C13">
-        <v>0.7472610092110017</v>
+        <v>1.649323869353282</v>
       </c>
       <c r="D13">
-        <v>0.01855841881804654</v>
+        <v>0.03963811202955192</v>
       </c>
       <c r="E13">
-        <v>2.492001713330097</v>
+        <v>0.07516833568672432</v>
       </c>
       <c r="F13">
-        <v>1.992594508012687</v>
+        <v>2.264307623839329</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1148363699432622</v>
       </c>
       <c r="I13">
-        <v>0.9625360139122847</v>
+        <v>0.004522726822047574</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>3.052195333476732</v>
+        <v>1.048944099353449</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9714325548867038</v>
+        <v>0.2045588431830581</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.292879858809044</v>
+        <v>5.515274623705295</v>
       </c>
       <c r="C14">
-        <v>0.7323399317816381</v>
+        <v>1.655734653072386</v>
       </c>
       <c r="D14">
-        <v>0.01886423209459664</v>
+        <v>0.03847094687735186</v>
       </c>
       <c r="E14">
-        <v>2.43959373921966</v>
+        <v>0.08864867500567541</v>
       </c>
       <c r="F14">
-        <v>1.960480625565651</v>
+        <v>1.945240193743956</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.16367041759014</v>
       </c>
       <c r="I14">
-        <v>0.9499539272688082</v>
+        <v>0.003767670125734313</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>2.99286662573428</v>
+        <v>0.8547876257834659</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9737391233761912</v>
+        <v>0.1425781336860226</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.265412047845814</v>
+        <v>5.453768035852647</v>
       </c>
       <c r="C15">
-        <v>0.7232405081718127</v>
+        <v>1.647015152734355</v>
       </c>
       <c r="D15">
-        <v>0.01905194894485529</v>
+        <v>0.03874344653489459</v>
       </c>
       <c r="E15">
-        <v>2.407686330137267</v>
+        <v>0.09195538724610941</v>
       </c>
       <c r="F15">
-        <v>1.940938491295128</v>
+        <v>1.855935458811459</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.17597052516399</v>
       </c>
       <c r="I15">
-        <v>0.9423128615162426</v>
+        <v>0.003546119736992814</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>2.956655839413145</v>
+        <v>0.805261801980464</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9752126430575174</v>
+        <v>0.1283337502644883</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.109299067919153</v>
+        <v>5.107168308224402</v>
       </c>
       <c r="C16">
-        <v>0.6716725897680362</v>
+        <v>1.537176666823882</v>
       </c>
       <c r="D16">
-        <v>0.02013336303521029</v>
+        <v>0.03932252677736869</v>
       </c>
       <c r="E16">
-        <v>2.227608487826927</v>
+        <v>0.08503179485305523</v>
       </c>
       <c r="F16">
-        <v>1.830818881614974</v>
+        <v>1.766391346442887</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623968341047544</v>
       </c>
       <c r="I16">
-        <v>0.899484391182547</v>
+        <v>0.00242827874595708</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>2.751013247007705</v>
+        <v>0.7855295783358898</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9845494490707978</v>
+        <v>0.1225317084057878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.014596484917888</v>
+        <v>4.896774027058314</v>
       </c>
       <c r="C17">
-        <v>0.6405127128531944</v>
+        <v>1.450121517719992</v>
       </c>
       <c r="D17">
-        <v>0.02080144746895218</v>
+        <v>0.039720632715877</v>
       </c>
       <c r="E17">
-        <v>2.119401423687947</v>
+        <v>0.07185209195585074</v>
       </c>
       <c r="F17">
-        <v>1.764825980828746</v>
+        <v>1.861992769104063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242977634964575</v>
       </c>
       <c r="I17">
-        <v>0.8740153306814946</v>
+        <v>0.002064193366208222</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>2.626397707968408</v>
+        <v>0.868333390649461</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9910351284551666</v>
+        <v>0.1484995243438689</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.96048565966305</v>
+        <v>4.778557202307354</v>
       </c>
       <c r="C18">
-        <v>0.6227501645813049</v>
+        <v>1.371178333500893</v>
       </c>
       <c r="D18">
-        <v>0.02118728553154003</v>
+        <v>0.04322964027673271</v>
       </c>
       <c r="E18">
-        <v>2.057918626317644</v>
+        <v>0.05605857664130021</v>
       </c>
       <c r="F18">
-        <v>1.727402898235965</v>
+        <v>2.151930391631097</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07142661653322335</v>
       </c>
       <c r="I18">
-        <v>0.8596426494567524</v>
+        <v>0.001764346598000621</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>2.555240378814034</v>
+        <v>1.072821598052137</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9950294520845944</v>
+        <v>0.2145857234015267</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.942223464281682</v>
+        <v>4.742617739721481</v>
       </c>
       <c r="C19">
-        <v>0.6167621721294552</v>
+        <v>1.310921421752994</v>
       </c>
       <c r="D19">
-        <v>0.02131818166254895</v>
+        <v>0.05338558558424467</v>
       </c>
       <c r="E19">
-        <v>2.03722438324256</v>
+        <v>0.04582003691937864</v>
       </c>
       <c r="F19">
-        <v>1.714820262908276</v>
+        <v>2.58035222415711</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02638333449311148</v>
       </c>
       <c r="I19">
-        <v>0.8548220418676635</v>
+        <v>0.002016441289738324</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>2.531232446099978</v>
+        <v>1.373351466935958</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.996425876022542</v>
+        <v>0.3239698911410613</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.0246398070704</v>
+        <v>4.940029809533087</v>
       </c>
       <c r="C20">
-        <v>0.6438128739416413</v>
+        <v>1.295201466626963</v>
       </c>
       <c r="D20">
-        <v>0.02073016288630569</v>
+        <v>0.0816746284779839</v>
       </c>
       <c r="E20">
-        <v>2.130840439551733</v>
+        <v>0.05001244871595745</v>
       </c>
       <c r="F20">
-        <v>1.771794877419779</v>
+        <v>3.426497694080041</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001578894775143613</v>
       </c>
       <c r="I20">
-        <v>0.876697524167092</v>
+        <v>0.003270348979956594</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>2.639608576563518</v>
+        <v>1.961137890269256</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.990317083961159</v>
+        <v>0.5503730564035152</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.306075587978626</v>
+        <v>5.574447383884603</v>
       </c>
       <c r="C21">
-        <v>0.7367141480645216</v>
+        <v>1.465569818340668</v>
       </c>
       <c r="D21">
-        <v>0.01877432347642216</v>
+        <v>0.08886255042378366</v>
       </c>
       <c r="E21">
-        <v>2.454946301056523</v>
+        <v>0.05861635305030166</v>
       </c>
       <c r="F21">
-        <v>1.969886211248053</v>
+        <v>3.884810919287986</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004431961241256444</v>
       </c>
       <c r="I21">
-        <v>0.953635750871598</v>
+        <v>0.00694511335653214</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>3.01026556203837</v>
+        <v>2.204585468835475</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9730488903737609</v>
+        <v>0.6404808835434466</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.493943499123702</v>
+        <v>5.99193555629148</v>
       </c>
       <c r="C22">
-        <v>0.7991871145815992</v>
+        <v>1.579384162704969</v>
       </c>
       <c r="D22">
-        <v>0.01751345105596691</v>
+        <v>0.09271160745555562</v>
       </c>
       <c r="E22">
-        <v>2.675236551206098</v>
+        <v>0.06400858247152375</v>
       </c>
       <c r="F22">
-        <v>2.104994237268954</v>
+        <v>4.169357271905028</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007089775368447904</v>
       </c>
       <c r="I22">
-        <v>1.006812238562333</v>
+        <v>0.01008801880952426</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>3.258187917584479</v>
+        <v>2.351762049656614</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9644388030067859</v>
+        <v>0.6884398190431682</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.393276531069546</v>
+        <v>5.769085100316261</v>
       </c>
       <c r="C23">
-        <v>0.7656657581742934</v>
+        <v>1.515623145060545</v>
       </c>
       <c r="D23">
-        <v>0.01818462044032909</v>
+        <v>0.0914896546162538</v>
       </c>
       <c r="E23">
-        <v>2.55679520790018</v>
+        <v>0.06120867997403323</v>
       </c>
       <c r="F23">
-        <v>2.032321550035363</v>
+        <v>4.035183160088224</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005617609840522286</v>
       </c>
       <c r="I23">
-        <v>0.9781435781094245</v>
+        <v>0.008063773495734949</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>3.125291793851346</v>
+        <v>2.287039594979575</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9687722303904707</v>
+        <v>0.6625745640656078</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.020098185536568</v>
+        <v>4.930987040748505</v>
       </c>
       <c r="C24">
-        <v>0.642320402170526</v>
+        <v>1.283275643395086</v>
       </c>
       <c r="D24">
-        <v>0.02076238523747342</v>
+        <v>0.08543680873974324</v>
       </c>
       <c r="E24">
-        <v>2.125666614544144</v>
+        <v>0.05095157377327197</v>
       </c>
       <c r="F24">
-        <v>1.768642637920081</v>
+        <v>3.505423177519845</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001546150799515811</v>
       </c>
       <c r="I24">
-        <v>0.875484068609218</v>
+        <v>0.002854014587258646</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>2.633634440882844</v>
+        <v>2.022338197929159</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9906408879659097</v>
+        <v>0.5660528818738015</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.631000715390257</v>
+        <v>4.037518125024235</v>
       </c>
       <c r="C25">
-        <v>0.5152424633669739</v>
+        <v>1.040382287092683</v>
       </c>
       <c r="D25">
-        <v>0.02360219601078395</v>
+        <v>0.07877544534019876</v>
       </c>
       <c r="E25">
-        <v>1.688809453759006</v>
+        <v>0.04075741286732182</v>
       </c>
       <c r="F25">
-        <v>1.504271638717839</v>
+        <v>2.948049606791272</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.761787408824603E-09</v>
       </c>
       <c r="I25">
-        <v>0.7751349109993342</v>
+        <v>0.001082063098511554</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>2.12266545817576</v>
+        <v>1.742668607741791</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.024182725290643</v>
+        <v>0.4637493215633413</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.386095570792349</v>
+        <v>3.393832865325066</v>
       </c>
       <c r="C2">
-        <v>0.8596963443546031</v>
+        <v>0.993110421556139</v>
       </c>
       <c r="D2">
-        <v>0.07571053613783718</v>
+        <v>0.04389089465366069</v>
       </c>
       <c r="E2">
-        <v>0.03400123908623298</v>
+        <v>0.03243907294171278</v>
       </c>
       <c r="F2">
-        <v>2.589154847199978</v>
+        <v>1.816418524801719</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0008820514871077378</v>
+        <v>0.0004634441984965321</v>
       </c>
       <c r="I2">
-        <v>0.001778504291663374</v>
+        <v>0.001132261229914278</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.573320511788452</v>
+        <v>0.9814471866561263</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4212569432287978</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.320330443195644</v>
       </c>
       <c r="N2">
-        <v>0.3889666722534457</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4070204277276872</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.946871624134701</v>
+        <v>2.954238357709016</v>
       </c>
       <c r="C3">
-        <v>0.7433840767104414</v>
+        <v>0.855978040025974</v>
       </c>
       <c r="D3">
-        <v>0.07237597066809442</v>
+        <v>0.04395950429232798</v>
       </c>
       <c r="E3">
-        <v>0.02952648120609114</v>
+        <v>0.0286117816138276</v>
       </c>
       <c r="F3">
-        <v>2.324826441550471</v>
+        <v>1.659770703808874</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002569074422124062</v>
+        <v>0.001629218670256893</v>
       </c>
       <c r="I3">
-        <v>0.004055301794323452</v>
+        <v>0.002532228834175587</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.440539267942754</v>
+        <v>0.9271927904707695</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4100790593720234</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2914524479413032</v>
       </c>
       <c r="N3">
-        <v>0.3390544221424108</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3557568278005476</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.678038573148228</v>
+        <v>2.684694709467635</v>
       </c>
       <c r="C4">
-        <v>0.6729667311227843</v>
+        <v>0.7728642219750554</v>
       </c>
       <c r="D4">
-        <v>0.07023799906947659</v>
+        <v>0.04394733309584709</v>
       </c>
       <c r="E4">
-        <v>0.02686357825411134</v>
+        <v>0.02632103481080783</v>
       </c>
       <c r="F4">
-        <v>2.163212200818123</v>
+        <v>1.563790381197961</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.004089159531277309</v>
+        <v>0.002733483677910709</v>
       </c>
       <c r="I4">
-        <v>0.006100483930550293</v>
+        <v>0.003887664441435845</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.358851807839301</v>
+        <v>0.8935427281504005</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4026350815004278</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.274626067314351</v>
       </c>
       <c r="N4">
-        <v>0.3085814210582782</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3244138499601945</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.56863505423587</v>
+        <v>2.574889444941164</v>
       </c>
       <c r="C5">
-        <v>0.6451799262783311</v>
+        <v>0.7398541207809615</v>
       </c>
       <c r="D5">
-        <v>0.06913775694646063</v>
+        <v>0.04385236377764823</v>
       </c>
       <c r="E5">
-        <v>0.02577444228660752</v>
+        <v>0.02538532496278911</v>
       </c>
       <c r="F5">
-        <v>2.093058782241641</v>
+        <v>1.521685099430982</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.004828644921796021</v>
+        <v>0.003279380110056795</v>
       </c>
       <c r="I5">
-        <v>0.007171623802896487</v>
+        <v>0.004651133148085407</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.322071240131777</v>
+        <v>0.8775886768236347</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3985639559090615</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2672707323022934</v>
       </c>
       <c r="N5">
-        <v>0.296254054358883</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3117123028064412</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550457534415102</v>
+        <v>2.556635017525934</v>
       </c>
       <c r="C6">
-        <v>0.6414242403643868</v>
+        <v>0.7351440641747899</v>
       </c>
       <c r="D6">
-        <v>0.06870281418836655</v>
+        <v>0.04374322716653722</v>
       </c>
       <c r="E6">
-        <v>0.02556836147347363</v>
+        <v>0.02521335960868543</v>
       </c>
       <c r="F6">
-        <v>2.076022675852158</v>
+        <v>1.511017030300252</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.004965234291450682</v>
+        <v>0.00338037658070578</v>
       </c>
       <c r="I6">
-        <v>0.007470015271544561</v>
+        <v>0.004908569092775927</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.311772685177502</v>
+        <v>0.872315405330049</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.396793570501373</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2651861468368821</v>
       </c>
       <c r="N6">
-        <v>0.2942773196619726</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.309659346553218</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.676498485961872</v>
+        <v>2.683141860913452</v>
       </c>
       <c r="C7">
-        <v>0.6749051017241356</v>
+        <v>0.7744926311607401</v>
       </c>
       <c r="D7">
-        <v>0.0695353453196681</v>
+        <v>0.043696562959334</v>
       </c>
       <c r="E7">
-        <v>0.02677644948625524</v>
+        <v>0.02626106611993695</v>
       </c>
       <c r="F7">
-        <v>2.147492677687524</v>
+        <v>1.553183535606763</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.004115929156242482</v>
+        <v>0.002752362762421967</v>
       </c>
       <c r="I7">
-        <v>0.00639864637590648</v>
+        <v>0.00421363485214421</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.346886143756279</v>
+        <v>0.886189828654004</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3996581305692146</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2720992281751151</v>
       </c>
       <c r="N7">
-        <v>0.3086017358785682</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3243922256921934</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.234309858437541</v>
+        <v>3.24203211162461</v>
       </c>
       <c r="C8">
-        <v>0.8224431549712961</v>
+        <v>0.9483517695349519</v>
       </c>
       <c r="D8">
-        <v>0.07366261516784434</v>
+        <v>0.0436127498902259</v>
       </c>
       <c r="E8">
-        <v>0.03233871898676322</v>
+        <v>0.03104152714881558</v>
       </c>
       <c r="F8">
-        <v>2.478125966264088</v>
+        <v>1.749084592569403</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001371393493413642</v>
+        <v>0.0007892586647202382</v>
       </c>
       <c r="I8">
-        <v>0.002746164149899144</v>
+        <v>0.001874721251978073</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.512257169472775</v>
+        <v>0.9534280605074983</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4138354264414446</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3068370097835853</v>
       </c>
       <c r="N8">
-        <v>0.3719623377091494</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.389511902050117</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.33765009517208</v>
+        <v>4.343023678698557</v>
       </c>
       <c r="C9">
-        <v>1.117122305539453</v>
+        <v>1.295708634758398</v>
       </c>
       <c r="D9">
-        <v>0.08229011012305421</v>
+        <v>0.04342852737101843</v>
       </c>
       <c r="E9">
-        <v>0.04424041474477436</v>
+        <v>0.0411173643044338</v>
       </c>
       <c r="F9">
-        <v>3.161315805865769</v>
+        <v>2.154459475973454</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0001840706656226487</v>
+        <v>0.0002957134781418347</v>
       </c>
       <c r="I9">
-        <v>0.0008242769473687517</v>
+        <v>0.001132635398638726</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.857227348833987</v>
+        <v>1.095832675581065</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.442013496155532</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3871633933493683</v>
       </c>
       <c r="N9">
-        <v>0.4976804613125978</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5183458289316434</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.156483207631709</v>
+        <v>5.156777597066707</v>
       </c>
       <c r="C10">
-        <v>1.349187934956092</v>
+        <v>1.564200234769828</v>
       </c>
       <c r="D10">
-        <v>0.08447783393248187</v>
+        <v>0.04205155850540443</v>
       </c>
       <c r="E10">
-        <v>0.05257133049991447</v>
+        <v>0.04847651616657234</v>
       </c>
       <c r="F10">
-        <v>3.589718433581396</v>
+        <v>2.406709817804028</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002444517489609499</v>
+        <v>0.002438937057555712</v>
       </c>
       <c r="I10">
-        <v>0.003618721172671258</v>
+        <v>0.003817907136417276</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.050596666568438</v>
+        <v>1.166617406415824</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4481248910152189</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.438312731756902</v>
       </c>
       <c r="N10">
-        <v>0.5697585652923038</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5916805102668263</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.520671568272633</v>
+        <v>5.520409557004371</v>
       </c>
       <c r="C11">
-        <v>1.516955614204676</v>
+        <v>1.7253661108291</v>
       </c>
       <c r="D11">
-        <v>0.06010970347197642</v>
+        <v>0.03678773567034943</v>
       </c>
       <c r="E11">
-        <v>0.05314838008071954</v>
+        <v>0.05306709114056041</v>
       </c>
       <c r="F11">
-        <v>3.134599505344227</v>
+        <v>2.127397321774779</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0212468168956832</v>
+        <v>0.02121708141062939</v>
       </c>
       <c r="I11">
-        <v>0.005199830742711242</v>
+        <v>0.00545656865859101</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.661892072480242</v>
+        <v>0.9436972512265669</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3609704129022049</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3603217592154238</v>
       </c>
       <c r="N11">
-        <v>0.4254343437332579</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4424624125657033</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.65489584864747</v>
+        <v>5.655324044856286</v>
       </c>
       <c r="C12">
-        <v>1.608597348907381</v>
+        <v>1.802283694141522</v>
       </c>
       <c r="D12">
-        <v>0.04663684234785315</v>
+        <v>0.03680796303081024</v>
       </c>
       <c r="E12">
-        <v>0.06124352796041599</v>
+        <v>0.06405453109152504</v>
       </c>
       <c r="F12">
-        <v>2.710563160761268</v>
+        <v>1.867752660526676</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05969146080217058</v>
+        <v>0.05970159479961268</v>
       </c>
       <c r="I12">
-        <v>0.00529767041359186</v>
+        <v>0.005618800063733609</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.345265692239849</v>
+        <v>0.7699250070797774</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2977734889766737</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2938815111910884</v>
       </c>
       <c r="N12">
-        <v>0.3075990997082698</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3206992977994076</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.618142980864093</v>
+        <v>5.620281062796607</v>
       </c>
       <c r="C13">
-        <v>1.649323869353282</v>
+        <v>1.820866371672594</v>
       </c>
       <c r="D13">
-        <v>0.03963811202955192</v>
+        <v>0.04030004433961665</v>
       </c>
       <c r="E13">
-        <v>0.07516833568672432</v>
+        <v>0.08014608921722655</v>
       </c>
       <c r="F13">
-        <v>2.264307623839329</v>
+        <v>1.592573584336805</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1148363699432622</v>
+        <v>0.114924560531378</v>
       </c>
       <c r="I13">
-        <v>0.004522726822047574</v>
+        <v>0.004984397045567412</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.048944099353449</v>
+        <v>0.6125341759293477</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2439166090567184</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2292280011888934</v>
       </c>
       <c r="N13">
-        <v>0.2045588431830581</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2141693327247367</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.515274623705295</v>
+        <v>5.51891607974494</v>
       </c>
       <c r="C14">
-        <v>1.655734653072386</v>
+        <v>1.808209966741742</v>
       </c>
       <c r="D14">
-        <v>0.03847094687735186</v>
+        <v>0.04472396923088695</v>
       </c>
       <c r="E14">
-        <v>0.08864867500567541</v>
+        <v>0.09468091123166289</v>
       </c>
       <c r="F14">
-        <v>1.945240193743956</v>
+        <v>1.393869826034916</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.16367041759014</v>
+        <v>0.1638100070776574</v>
       </c>
       <c r="I14">
-        <v>0.003767670125734313</v>
+        <v>0.004341458153172439</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.8547876257834659</v>
+        <v>0.5112754620210822</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2104052614162271</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1859766995640229</v>
       </c>
       <c r="N14">
-        <v>0.1425781336860226</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1499981432788928</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.453768035852647</v>
+        <v>5.45796512734097</v>
       </c>
       <c r="C15">
-        <v>1.647015152734355</v>
+        <v>1.793387827736353</v>
       </c>
       <c r="D15">
-        <v>0.03874344653489459</v>
+        <v>0.04609666265076839</v>
       </c>
       <c r="E15">
-        <v>0.09195538724610941</v>
+        <v>0.09815943466444566</v>
       </c>
       <c r="F15">
-        <v>1.855935458811459</v>
+        <v>1.337825200104788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.17597052516399</v>
+        <v>0.1761230378735519</v>
       </c>
       <c r="I15">
-        <v>0.003546119736992814</v>
+        <v>0.004171974136407464</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.805261801980464</v>
+        <v>0.486212993089076</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.202509648753356</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1746406307922896</v>
       </c>
       <c r="N15">
-        <v>0.1283337502644883</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1352531911963553</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.107168308224402</v>
+        <v>5.11318085348347</v>
       </c>
       <c r="C16">
-        <v>1.537176666823882</v>
+        <v>1.672497519879812</v>
       </c>
       <c r="D16">
-        <v>0.03932252677736869</v>
+        <v>0.04538381555774507</v>
       </c>
       <c r="E16">
-        <v>0.08503179485305523</v>
+        <v>0.09096230259380533</v>
       </c>
       <c r="F16">
-        <v>1.766391346442887</v>
+        <v>1.283233141325837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1623968341047544</v>
+        <v>0.1625419193395174</v>
       </c>
       <c r="I16">
-        <v>0.00242827874595708</v>
+        <v>0.003095139027127658</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.7855295783358898</v>
+        <v>0.4852477824798811</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2062464737417713</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1680445243006616</v>
       </c>
       <c r="N16">
-        <v>0.1225317084057878</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1295504735179804</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.896774027058314</v>
+        <v>4.903374264128161</v>
       </c>
       <c r="C17">
-        <v>1.450121517719992</v>
+        <v>1.587205720289148</v>
       </c>
       <c r="D17">
-        <v>0.039720632715877</v>
+        <v>0.04226412011452396</v>
       </c>
       <c r="E17">
-        <v>0.07185209195585074</v>
+        <v>0.07712542480379625</v>
       </c>
       <c r="F17">
-        <v>1.861992769104063</v>
+        <v>1.344825228350757</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1242977634964575</v>
+        <v>0.1244061281685731</v>
       </c>
       <c r="I17">
-        <v>0.002064193366208222</v>
+        <v>0.002700491195047228</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.868333390649461</v>
+        <v>0.536306335746886</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2269865830124367</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1844950701510157</v>
       </c>
       <c r="N17">
-        <v>0.1484995243438689</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1567221486278001</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.778557202307354</v>
+        <v>4.784934499459553</v>
       </c>
       <c r="C18">
-        <v>1.371178333500893</v>
+        <v>1.520762347190612</v>
       </c>
       <c r="D18">
-        <v>0.04322964027673271</v>
+        <v>0.03843502205258531</v>
       </c>
       <c r="E18">
-        <v>0.05605857664130021</v>
+        <v>0.05995602149353552</v>
       </c>
       <c r="F18">
-        <v>2.151930391631097</v>
+        <v>1.52770374622105</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07142661653322335</v>
+        <v>0.07152271276663669</v>
       </c>
       <c r="I18">
-        <v>0.001764346598000621</v>
+        <v>0.002325528909376651</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.072821598052137</v>
+        <v>0.6515028778715433</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2701909548070773</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2271873240638556</v>
       </c>
       <c r="N18">
-        <v>0.2145857234015267</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2253741630792803</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.742617739721481</v>
+        <v>4.748078236100923</v>
       </c>
       <c r="C19">
-        <v>1.310921421752994</v>
+        <v>1.4790770927994</v>
       </c>
       <c r="D19">
-        <v>0.05338558558424467</v>
+        <v>0.03716199523712405</v>
       </c>
       <c r="E19">
-        <v>0.04582003691937864</v>
+        <v>0.04733901598119949</v>
       </c>
       <c r="F19">
-        <v>2.58035222415711</v>
+        <v>1.792972637959664</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02638333449311148</v>
+        <v>0.02649846174956139</v>
       </c>
       <c r="I19">
-        <v>0.002016441289738324</v>
+        <v>0.002588183517067577</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.373351466935958</v>
+        <v>0.8156351772482111</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3303824884275386</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2900733023717592</v>
       </c>
       <c r="N19">
-        <v>0.3239698911410613</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3385432373554096</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.940029809533087</v>
+        <v>4.942062394877439</v>
       </c>
       <c r="C20">
-        <v>1.295201466626963</v>
+        <v>1.49982594017132</v>
       </c>
       <c r="D20">
-        <v>0.0816746284779839</v>
+        <v>0.04177948815989296</v>
       </c>
       <c r="E20">
-        <v>0.05001244871595745</v>
+        <v>0.04630737304604748</v>
       </c>
       <c r="F20">
-        <v>3.426497694080041</v>
+        <v>2.307266881774424</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001578894775143613</v>
+        <v>0.001655696824314212</v>
       </c>
       <c r="I20">
-        <v>0.003270348979956594</v>
+        <v>0.003740331749582992</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>1.961137890269256</v>
+        <v>1.125264952869756</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4384223927262809</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4156758666995302</v>
       </c>
       <c r="N20">
-        <v>0.5503730564035152</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5718614273138627</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.574447383884603</v>
+        <v>5.570676175405026</v>
       </c>
       <c r="C21">
-        <v>1.465569818340668</v>
+        <v>1.702213609408716</v>
       </c>
       <c r="D21">
-        <v>0.08886255042378366</v>
+        <v>0.04211657454454887</v>
       </c>
       <c r="E21">
-        <v>0.05861635305030166</v>
+        <v>0.05319208720120039</v>
       </c>
       <c r="F21">
-        <v>3.884810919287986</v>
+        <v>2.579553180821193</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.004431961241256444</v>
+        <v>0.004153513776872564</v>
       </c>
       <c r="I21">
-        <v>0.00694511335653214</v>
+        <v>0.006880766813292638</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.204585468835475</v>
+        <v>1.230737071485194</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4608437762848325</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.476628473222064</v>
       </c>
       <c r="N21">
-        <v>0.6404808835434466</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6638163656999723</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.99193555629148</v>
+        <v>5.983416052390226</v>
       </c>
       <c r="C22">
-        <v>1.579384162704969</v>
+        <v>1.835977247421397</v>
       </c>
       <c r="D22">
-        <v>0.09271160745555562</v>
+        <v>0.04210651433776746</v>
       </c>
       <c r="E22">
-        <v>0.06400858247152375</v>
+        <v>0.05763400618949288</v>
       </c>
       <c r="F22">
-        <v>4.169357271905028</v>
+        <v>2.749230626618385</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.007089775368447904</v>
+        <v>0.006412437390253878</v>
       </c>
       <c r="I22">
-        <v>0.01008801880952426</v>
+        <v>0.009340659804963458</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.351762049656614</v>
+        <v>1.293685494928241</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4726818079600648</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5153748186706295</v>
       </c>
       <c r="N22">
-        <v>0.6884398190431682</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7125763560105867</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.769085100316261</v>
+        <v>5.763139892696813</v>
       </c>
       <c r="C23">
-        <v>1.515623145060545</v>
+        <v>1.761825657698694</v>
       </c>
       <c r="D23">
-        <v>0.0914896546162538</v>
+        <v>0.04234767177569054</v>
       </c>
       <c r="E23">
-        <v>0.06120867997403323</v>
+        <v>0.05530658604453298</v>
       </c>
       <c r="F23">
-        <v>4.035183160088224</v>
+        <v>2.67024213922636</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.005617609840522286</v>
+        <v>0.005164662244984242</v>
       </c>
       <c r="I23">
-        <v>0.008063773495734949</v>
+        <v>0.00763648064744693</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.287039594979575</v>
+        <v>1.268220863202657</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4692602503597456</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4978554563100133</v>
       </c>
       <c r="N23">
-        <v>0.6625745640656078</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.686332140561305</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.930987040748505</v>
+        <v>4.932822036776429</v>
       </c>
       <c r="C24">
-        <v>1.283275643395086</v>
+        <v>1.48975822093513</v>
       </c>
       <c r="D24">
-        <v>0.08543680873974324</v>
+        <v>0.04280398804441354</v>
       </c>
       <c r="E24">
-        <v>0.05095157377327197</v>
+        <v>0.04677467015571479</v>
       </c>
       <c r="F24">
-        <v>3.505423177519845</v>
+        <v>2.356491189340275</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001546150799515811</v>
+        <v>0.001614821898311858</v>
       </c>
       <c r="I24">
-        <v>0.002854014587258646</v>
+        <v>0.00321106679618044</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.022338197929159</v>
+        <v>1.159694401126316</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4510752107522649</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4288401291983348</v>
       </c>
       <c r="N24">
-        <v>0.5660528818738015</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.588091242897903</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.037518125024235</v>
+        <v>4.044132920754407</v>
       </c>
       <c r="C25">
-        <v>1.040382287092683</v>
+        <v>1.204243952531442</v>
       </c>
       <c r="D25">
-        <v>0.07877544534019876</v>
+        <v>0.04313156917415295</v>
       </c>
       <c r="E25">
-        <v>0.04075741286732182</v>
+        <v>0.03821478924356314</v>
       </c>
       <c r="F25">
-        <v>2.948049606791272</v>
+        <v>2.026137574223654</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.761787408824603E-09</v>
+        <v>2.529640374060449E-05</v>
       </c>
       <c r="I25">
-        <v>0.001082063098511554</v>
+        <v>0.00131367838012153</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.742668607741791</v>
+        <v>1.044782580485077</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4301229012017771</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3597867976692442</v>
       </c>
       <c r="N25">
-        <v>0.4637493215633413</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.483563603818709</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
